--- a/demos/files/training.xlsx
+++ b/demos/files/training.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" r:id="rId3" sheetId="1" state="visible"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -158,12 +160,15 @@
   </si>
   <si>
     <t>Maxime</t>
+  </si>
+  <si>
+    <t>HELLO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-m-d"/>
   </numFmts>
@@ -192,32 +197,32 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0">
       <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -459,8 +464,8 @@
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="2">
-        <v>42005.0</v>
+      <c r="F10" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="G10" s="2">
         <v>42162.0</v>
